--- a/e8-test1.xlsx
+++ b/e8-test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SawSoe\Desktop\frontend\e8document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FACD86-8601-4282-9709-7EA878EFBA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672D6ED5-C143-4F53-9A8D-B1BCA668BAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2580" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{149B6D2C-B18F-46C6-A9A2-8B48A3F23525}"/>
   </bookViews>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="364">
   <si>
     <t>Does my agency need to complete this form</t>
   </si>
@@ -2647,6 +2647,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2665,9 +2707,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2677,45 +2716,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2725,6 +2725,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2734,15 +2764,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2759,28 +2780,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -7717,43 +7717,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="106"/>
@@ -7767,124 +7767,124 @@
       <c r="I4" s="107"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="176" t="s">
         <v>305</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="165"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="156" t="s">
+      <c r="A6" s="170" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="157"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="158"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="172"/>
     </row>
     <row r="7" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="170" t="s">
+      <c r="A7" s="160" t="s">
         <v>306</v>
       </c>
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="176"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="167"/>
     </row>
     <row r="8" spans="1:9" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="167" t="s">
+      <c r="A8" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="169"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="159"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="170" t="s">
+      <c r="A9" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="172"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="162"/>
     </row>
     <row r="10" spans="1:9" s="47" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="173" t="s">
+      <c r="A10" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="174"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="175"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="165"/>
     </row>
     <row r="11" spans="1:9" s="47" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="177" t="s">
+      <c r="A11" s="168" t="s">
         <v>294</v>
       </c>
-      <c r="B11" s="178"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="178"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
+      <c r="B11" s="169"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="108" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="109"/>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="166"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="166"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="166"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{357412D1-D809-42A8-A171-62DB313EA5FE}"/>
@@ -8346,134 +8346,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="182" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="183" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="183" t="s">
         <v>269</v>
       </c>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="183" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="193"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="193" t="s">
+      <c r="A5" s="183" t="s">
         <v>271</v>
       </c>
-      <c r="B5" s="193"/>
-      <c r="C5" s="193"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="193"/>
+      <c r="B5" s="183"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="197"/>
+      <c r="B6" s="185"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="186"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="200"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="189"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="187" t="s">
+      <c r="A7" s="182" t="s">
         <v>272</v>
       </c>
-      <c r="B7" s="187"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="193" t="s">
+      <c r="A8" s="183" t="s">
         <v>273</v>
       </c>
-      <c r="B8" s="193"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="193"/>
+      <c r="B8" s="183"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="183"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="187" t="s">
+      <c r="A9" s="182" t="s">
         <v>274</v>
       </c>
-      <c r="B9" s="187"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="185" t="s">
+      <c r="A10" s="190" t="s">
         <v>275</v>
       </c>
-      <c r="B10" s="186"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="186"/>
+      <c r="B10" s="191"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="191"/>
+      <c r="E10" s="191"/>
+      <c r="F10" s="191"/>
+      <c r="G10" s="191"/>
+      <c r="H10" s="191"/>
+      <c r="I10" s="191"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -8487,43 +8487,43 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="187" t="s">
+      <c r="A12" s="182" t="s">
         <v>276</v>
       </c>
-      <c r="B12" s="187"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="187"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="187"/>
+      <c r="B12" s="182"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="182"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="184" t="s">
+      <c r="A13" s="194" t="s">
         <v>277</v>
       </c>
-      <c r="B13" s="184"/>
-      <c r="C13" s="184"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="184"/>
-      <c r="F13" s="184"/>
-      <c r="G13" s="184"/>
-      <c r="H13" s="184"/>
-      <c r="I13" s="184"/>
+      <c r="B13" s="194"/>
+      <c r="C13" s="194"/>
+      <c r="D13" s="194"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="194"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="185" t="s">
+      <c r="A14" s="190" t="s">
         <v>278</v>
       </c>
-      <c r="B14" s="186"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="186"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="186"/>
+      <c r="B14" s="191"/>
+      <c r="C14" s="191"/>
+      <c r="D14" s="191"/>
+      <c r="E14" s="191"/>
+      <c r="F14" s="191"/>
+      <c r="G14" s="191"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="191"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -8537,134 +8537,134 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="187" t="s">
+      <c r="A16" s="182" t="s">
         <v>279</v>
       </c>
-      <c r="B16" s="187"/>
-      <c r="C16" s="187"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="187"/>
+      <c r="B16" s="182"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="188" t="s">
+      <c r="A17" s="195" t="s">
         <v>280</v>
       </c>
-      <c r="B17" s="188"/>
-      <c r="C17" s="188"/>
-      <c r="D17" s="188"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="188"/>
+      <c r="B17" s="195"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="195"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="189" t="s">
+      <c r="A18" s="196" t="s">
         <v>281</v>
       </c>
-      <c r="B18" s="190"/>
-      <c r="C18" s="190"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="190"/>
-      <c r="F18" s="190"/>
-      <c r="G18" s="190"/>
-      <c r="H18" s="190"/>
-      <c r="I18" s="190"/>
+      <c r="B18" s="197"/>
+      <c r="C18" s="197"/>
+      <c r="D18" s="197"/>
+      <c r="E18" s="197"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="197"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="191" t="s">
+      <c r="A19" s="198" t="s">
         <v>282</v>
       </c>
-      <c r="B19" s="191"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
-      <c r="H19" s="191"/>
-      <c r="I19" s="191"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="198"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="198"/>
+      <c r="I19" s="198"/>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="192" t="s">
+      <c r="A20" s="199" t="s">
         <v>283</v>
       </c>
-      <c r="B20" s="192"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="192"/>
-      <c r="F20" s="192"/>
-      <c r="G20" s="192"/>
-      <c r="H20" s="192"/>
-      <c r="I20" s="192"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="199"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="199"/>
+      <c r="G20" s="199"/>
+      <c r="H20" s="199"/>
+      <c r="I20" s="199"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="193" t="s">
+      <c r="A21" s="183" t="s">
         <v>284</v>
       </c>
-      <c r="B21" s="193"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="193"/>
+      <c r="B21" s="183"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="183"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="183"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="187" t="s">
+      <c r="A22" s="182" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="187"/>
-      <c r="C22" s="187"/>
-      <c r="D22" s="187"/>
-      <c r="E22" s="187"/>
-      <c r="F22" s="187"/>
-      <c r="G22" s="187"/>
-      <c r="H22" s="187"/>
-      <c r="I22" s="187"/>
+      <c r="B22" s="182"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="182"/>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="194" t="s">
+      <c r="A23" s="200" t="s">
         <v>286</v>
       </c>
-      <c r="B23" s="194"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="194"/>
-      <c r="G23" s="194"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="194"/>
+      <c r="B23" s="200"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="200"/>
+      <c r="E23" s="200"/>
+      <c r="F23" s="200"/>
+      <c r="G23" s="200"/>
+      <c r="H23" s="200"/>
+      <c r="I23" s="200"/>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="187" t="s">
+      <c r="A24" s="182" t="s">
         <v>287</v>
       </c>
-      <c r="B24" s="187"/>
-      <c r="C24" s="187"/>
-      <c r="D24" s="187"/>
-      <c r="E24" s="187"/>
-      <c r="F24" s="187"/>
-      <c r="G24" s="187"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="187"/>
+      <c r="B24" s="182"/>
+      <c r="C24" s="182"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="182"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="182"/>
+      <c r="I24" s="182"/>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="182" t="s">
+      <c r="A25" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="183"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="183"/>
+      <c r="B25" s="193"/>
+      <c r="C25" s="193"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="193"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -8683,6 +8683,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
@@ -8695,18 +8707,6 @@
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1" display="https://www.qgcio.qld.gov.au/documents/information-security-policy_x000a__x000a_ " xr:uid="{3A93C843-C1FF-41B8-A248-E76E203BCE29}"/>
@@ -9565,8 +9565,8 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9585,7 +9585,7 @@
     <col min="12" max="16384" width="10.77734375" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="48" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="48" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>122</v>
       </c>
@@ -9657,7 +9657,9 @@
       <c r="C4" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="D4" s="74"/>
+      <c r="D4" s="74" t="s">
+        <v>292</v>
+      </c>
       <c r="E4" s="48" t="s">
         <v>342</v>
       </c>
@@ -9678,7 +9680,9 @@
       <c r="C5" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="D5" s="74"/>
+      <c r="D5" s="74" t="s">
+        <v>292</v>
+      </c>
       <c r="H5" s="48" t="s">
         <v>131</v>
       </c>
@@ -9693,7 +9697,9 @@
       <c r="C6" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D6" s="74"/>
+      <c r="D6" s="74" t="s">
+        <v>292</v>
+      </c>
       <c r="H6" s="48" t="s">
         <v>134</v>
       </c>
@@ -10464,7 +10470,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId4"/>
   <ignoredErrors>
-    <ignoredError sqref="F10 D4:D6 I38:I40 G32:G36 I23:I24" listDataValidation="1"/>
+    <ignoredError sqref="F10 I38:I40 G32:G36 I23:I24" listDataValidation="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId5"/>
   <tableParts count="9">
@@ -10851,12 +10857,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
+      <UserInfo>
+        <DisplayName>Andy Stokes</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Klaser</DisplayName>
+        <AccountId>98</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dinar Adnan</DisplayName>
+        <AccountId>35</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11103,37 +11128,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
-      <UserInfo>
-        <DisplayName>Andy Stokes</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Klaser</DisplayName>
-        <AccountId>98</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dinar Adnan</DisplayName>
-        <AccountId>35</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11158,18 +11173,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/e8-test1.xlsx
+++ b/e8-test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SawSoe\Desktop\frontend\e8document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672D6ED5-C143-4F53-9A8D-B1BCA668BAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB431BA-B38A-491E-9431-16F8F64EBFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2580" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{149B6D2C-B18F-46C6-A9A2-8B48A3F23525}"/>
   </bookViews>
@@ -2647,6 +2647,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2677,9 +2707,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2689,33 +2716,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2725,12 +2725,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2748,39 +2781,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -7717,43 +7717,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="106"/>
@@ -7767,124 +7767,124 @@
       <c r="I4" s="107"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="163" t="s">
         <v>305</v>
       </c>
-      <c r="B5" s="177"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="178"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="165"/>
     </row>
     <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="170" t="s">
+      <c r="A6" s="156" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="172"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="158"/>
     </row>
     <row r="7" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="170" t="s">
         <v>306</v>
       </c>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="167"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="176"/>
     </row>
     <row r="8" spans="1:9" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="157" t="s">
+      <c r="A8" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="158"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="159"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="169"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="160" t="s">
+      <c r="A9" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="161"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="162"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="172"/>
     </row>
     <row r="10" spans="1:9" s="47" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="164"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="165"/>
+      <c r="B10" s="174"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="175"/>
     </row>
     <row r="11" spans="1:9" s="47" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="168" t="s">
+      <c r="A11" s="177" t="s">
         <v>294</v>
       </c>
-      <c r="B11" s="169"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="169"/>
+      <c r="B11" s="178"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="178"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="108" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="109"/>
-      <c r="C12" s="156" t="s">
+      <c r="C12" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{357412D1-D809-42A8-A171-62DB313EA5FE}"/>
@@ -8346,134 +8346,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="187" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="193" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="193" t="s">
         <v>269</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="193" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="183"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="193" t="s">
         <v>271</v>
       </c>
-      <c r="B5" s="183"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
+      <c r="B5" s="193"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="193"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="184" t="s">
+      <c r="A6" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="185"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="186"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="197"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="189"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="199"/>
+      <c r="H6" s="199"/>
+      <c r="I6" s="200"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="182" t="s">
+      <c r="A7" s="187" t="s">
         <v>272</v>
       </c>
-      <c r="B7" s="182"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="193" t="s">
         <v>273</v>
       </c>
-      <c r="B8" s="183"/>
-      <c r="C8" s="183"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
+      <c r="B8" s="193"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="193"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="182" t="s">
+      <c r="A9" s="187" t="s">
         <v>274</v>
       </c>
-      <c r="B9" s="182"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="182"/>
+      <c r="B9" s="187"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="190" t="s">
+      <c r="A10" s="185" t="s">
         <v>275</v>
       </c>
-      <c r="B10" s="191"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="191"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="191"/>
-      <c r="H10" s="191"/>
-      <c r="I10" s="191"/>
+      <c r="B10" s="186"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -8487,43 +8487,43 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="182" t="s">
+      <c r="A12" s="187" t="s">
         <v>276</v>
       </c>
-      <c r="B12" s="182"/>
-      <c r="C12" s="182"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="182"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="182"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="187"/>
+      <c r="G12" s="187"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="187"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="194" t="s">
+      <c r="A13" s="184" t="s">
         <v>277</v>
       </c>
-      <c r="B13" s="194"/>
-      <c r="C13" s="194"/>
-      <c r="D13" s="194"/>
-      <c r="E13" s="194"/>
-      <c r="F13" s="194"/>
-      <c r="G13" s="194"/>
-      <c r="H13" s="194"/>
-      <c r="I13" s="194"/>
+      <c r="B13" s="184"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="184"/>
+      <c r="I13" s="184"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="190" t="s">
+      <c r="A14" s="185" t="s">
         <v>278</v>
       </c>
-      <c r="B14" s="191"/>
-      <c r="C14" s="191"/>
-      <c r="D14" s="191"/>
-      <c r="E14" s="191"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="191"/>
+      <c r="B14" s="186"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="186"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="186"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="186"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -8537,134 +8537,134 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182" t="s">
+      <c r="A16" s="187" t="s">
         <v>279</v>
       </c>
-      <c r="B16" s="182"/>
-      <c r="C16" s="182"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
+      <c r="B16" s="187"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="187"/>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="195" t="s">
+      <c r="A17" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="B17" s="195"/>
-      <c r="C17" s="195"/>
-      <c r="D17" s="195"/>
-      <c r="E17" s="195"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="195"/>
-      <c r="I17" s="195"/>
+      <c r="B17" s="188"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="196" t="s">
+      <c r="A18" s="189" t="s">
         <v>281</v>
       </c>
-      <c r="B18" s="197"/>
-      <c r="C18" s="197"/>
-      <c r="D18" s="197"/>
-      <c r="E18" s="197"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="197"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="197"/>
+      <c r="B18" s="190"/>
+      <c r="C18" s="190"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="190"/>
+      <c r="H18" s="190"/>
+      <c r="I18" s="190"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="198" t="s">
+      <c r="A19" s="191" t="s">
         <v>282</v>
       </c>
-      <c r="B19" s="198"/>
-      <c r="C19" s="198"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="198"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="198"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="191"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="191"/>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="199" t="s">
+      <c r="A20" s="192" t="s">
         <v>283</v>
       </c>
-      <c r="B20" s="199"/>
-      <c r="C20" s="199"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="199"/>
-      <c r="G20" s="199"/>
-      <c r="H20" s="199"/>
-      <c r="I20" s="199"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="192"/>
+      <c r="G20" s="192"/>
+      <c r="H20" s="192"/>
+      <c r="I20" s="192"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="183" t="s">
+      <c r="A21" s="193" t="s">
         <v>284</v>
       </c>
-      <c r="B21" s="183"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="193"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="193"/>
+      <c r="G21" s="193"/>
+      <c r="H21" s="193"/>
+      <c r="I21" s="193"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="182" t="s">
+      <c r="A22" s="187" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="182"/>
-      <c r="C22" s="182"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="182"/>
-      <c r="F22" s="182"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="182"/>
+      <c r="B22" s="187"/>
+      <c r="C22" s="187"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="187"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="187"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="187"/>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="200" t="s">
+      <c r="A23" s="194" t="s">
         <v>286</v>
       </c>
-      <c r="B23" s="200"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="200"/>
-      <c r="E23" s="200"/>
-      <c r="F23" s="200"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="200"/>
-      <c r="I23" s="200"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="194"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="194"/>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="182" t="s">
+      <c r="A24" s="187" t="s">
         <v>287</v>
       </c>
-      <c r="B24" s="182"/>
-      <c r="C24" s="182"/>
-      <c r="D24" s="182"/>
-      <c r="E24" s="182"/>
-      <c r="F24" s="182"/>
-      <c r="G24" s="182"/>
-      <c r="H24" s="182"/>
-      <c r="I24" s="182"/>
+      <c r="B24" s="187"/>
+      <c r="C24" s="187"/>
+      <c r="D24" s="187"/>
+      <c r="E24" s="187"/>
+      <c r="F24" s="187"/>
+      <c r="G24" s="187"/>
+      <c r="H24" s="187"/>
+      <c r="I24" s="187"/>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="192" t="s">
+      <c r="A25" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="193"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="193"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
+      <c r="B25" s="183"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="183"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -8683,6 +8683,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
     <mergeCell ref="A25:I25"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A14:I14"/>
@@ -8695,18 +8707,6 @@
     <mergeCell ref="A22:I22"/>
     <mergeCell ref="A23:I23"/>
     <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1" display="https://www.qgcio.qld.gov.au/documents/information-security-policy_x000a__x000a_ " xr:uid="{3A93C843-C1FF-41B8-A248-E76E203BCE29}"/>
@@ -9565,8 +9565,8 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10454,12 +10454,6 @@
     <mergeCell ref="J26:K26"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showErrorMessage="1" errorTitle="Error input" error="Please use 'Comments' section" sqref="I23:I28 F10:H10 G32:G36 I37:I40" xr:uid="{ED1417E7-B255-EB4C-8CB8-04E9DB385FF4}">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1" xr:uid="{E9BFF323-92EC-5F42-B687-42E1F8E2D26F}"/>
     <hyperlink ref="H5" r:id="rId2" xr:uid="{9A4FF1FE-2AE2-1742-BBFA-000848F43567}"/>
@@ -10469,9 +10463,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId4"/>
-  <ignoredErrors>
-    <ignoredError sqref="F10 I38:I40 G32:G36 I23:I24" listDataValidation="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId5"/>
   <tableParts count="9">
     <tablePart r:id="rId6"/>
@@ -10484,18 +10475,6 @@
     <tablePart r:id="rId13"/>
     <tablePart r:id="rId14"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" error="Fully / Partial / Nil" xr:uid="{09A02791-0234-47E3-AEC4-B06EEEF48195}">
-          <x14:formula1>
-            <xm:f>data!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D4:D6</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -10857,31 +10836,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
-      <UserInfo>
-        <DisplayName>Andy Stokes</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Klaser</DisplayName>
-        <AccountId>98</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dinar Adnan</DisplayName>
-        <AccountId>35</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11128,27 +11088,37 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
+      <UserInfo>
+        <DisplayName>Andy Stokes</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Klaser</DisplayName>
+        <AccountId>98</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dinar Adnan</DisplayName>
+        <AccountId>35</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11173,9 +11143,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/e8-test1.xlsx
+++ b/e8-test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SawSoe\Desktop\frontend\e8document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB431BA-B38A-491E-9431-16F8F64EBFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85791E68-148E-4632-8478-D1AD713C6542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2580" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{149B6D2C-B18F-46C6-A9A2-8B48A3F23525}"/>
   </bookViews>
@@ -2647,6 +2647,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2665,9 +2707,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2677,45 +2716,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2725,6 +2725,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2734,15 +2764,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2759,28 +2780,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -7165,7 +7165,6 @@
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{6164995D-5379-4B4B-AB4D-A1F7140BC99E}" name="PolicyR3e85" displayName="PolicyR3e85" ref="A26:H27" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" headerRowCellStyle="Normal 2" dataCellStyle="20% - Accent2">
-  <autoFilter ref="A26:H27" xr:uid="{6164995D-5379-4B4B-AB4D-A1F7140BC99E}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{CE9FC516-AA87-AA47-BBE7-F770B6728414}" name="PR3-E8.5" dataDxfId="58" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{3669DB3C-1E3A-F141-8792-A74B75841706}" name="Disable untrusted Microsoft Office macros_x000a_Macros are increasingly being used to enable the download of malware.  Adversaries can then access sensitive information, so macros should be secured or disabled" dataDxfId="57" dataCellStyle="Normal 2"/>
@@ -7182,7 +7181,6 @@
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{70ECD7F6-D6AC-3240-8218-56049DE4BA7F}" name="PolicyR3e86" displayName="PolicyR3e86" ref="A29:I30" totalsRowShown="0" headerRowDxfId="50" headerRowCellStyle="Normal 2">
-  <autoFilter ref="A29:I30" xr:uid="{70ECD7F6-D6AC-3240-8218-56049DE4BA7F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{ABD558FE-5405-D043-B5BB-041AE84D59F0}" name="PR3-E8.6" dataDxfId="49" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{303CAA2D-9921-9647-B254-DC06DB896724}" name="User application hardening_x000a_Flash, Java and web ads are popular ways to deliver malware to infect computers" dataDxfId="48" dataCellStyle="Normal 2"/>
@@ -7200,7 +7198,6 @@
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1CBC12C9-0E29-CF4D-A38C-72F34E4C71C3}" name="PolicyR3e87" displayName="PolicyR3e87" ref="A32:H36" totalsRowShown="0" headerRowDxfId="40" headerRowCellStyle="Normal 2">
-  <autoFilter ref="A32:H36" xr:uid="{1CBC12C9-0E29-CF4D-A38C-72F34E4C71C3}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{B08649A6-9535-7B4B-9424-F2639303533F}" name="PR3-E8.7" dataDxfId="39" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{D48AFAF8-16EA-C845-AF2F-10692860E891}" name="Multi-factor authentication_x000a_Having multiple levels of authentication makes it harder for adversaries to access your information" dataDxfId="38" dataCellStyle="Normal 2"/>
@@ -7217,7 +7214,6 @@
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{DB2CE024-B531-E342-9F15-E0DD01332C25}" name="PolicyR3e88" displayName="PolicyR3e88" ref="A38:I40" totalsRowShown="0" headerRowDxfId="31" headerRowCellStyle="Normal 2">
-  <autoFilter ref="A38:I40" xr:uid="{DB2CE024-B531-E342-9F15-E0DD01332C25}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DA115D66-DA77-C34E-8E5E-B8F3C0C102A3}" name="PR3-E8.8" dataDxfId="30" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{9455DCEF-0621-DE49-A430-2A4CF43CD784}" name="Routine backup of important information_x000a_An organisation can access up to date important information in the event of a security incident" dataDxfId="29" dataCellStyle="Normal 2"/>
@@ -7318,7 +7314,6 @@
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{267DBBEC-EBD9-8047-934C-46C6794C5CA2}" name="PolicyR3" displayName="PolicyR3" ref="A1:H6" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
-  <autoFilter ref="A1:H6" xr:uid="{267DBBEC-EBD9-8047-934C-46C6794C5CA2}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{EE3C1643-5589-964D-864E-7B73D51F5975}" name="PR3" dataDxfId="119"/>
     <tableColumn id="2" xr3:uid="{EA5294A1-0FD0-C346-AFD4-64D47D37ACBA}" name="Policy Requirements" dataDxfId="118"/>
@@ -7335,7 +7330,6 @@
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B5BAC64C-6737-4744-A0F0-64FF9F317168}" name="PolicyR3e81" displayName="PolicyR3e81" ref="A10:F12" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110" tableBorderDxfId="109" headerRowCellStyle="Normal 2">
-  <autoFilter ref="A10:F12" xr:uid="{B5BAC64C-6737-4744-A0F0-64FF9F317168}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{0AD3CA88-D8A3-F74D-A507-4590E23BBBF8}" name="PR3- E8.1" dataDxfId="108" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{56037E7E-0FE2-CD44-A74F-89152016EBDC}" name="Application whitelisting_x000a_Use application whitelisting to help prevent malicious software and other unapproved programs from running " dataDxfId="107" dataCellStyle="Normal 2"/>
@@ -7350,7 +7344,6 @@
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4A653377-3B06-4E4A-B9FE-6F7AFAEF870E}" name="PolicyR3e82" displayName="PolicyR3e82" ref="A14:K16" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101" tableBorderDxfId="100" headerRowCellStyle="Normal 2">
-  <autoFilter ref="A14:K16" xr:uid="{4A653377-3B06-4E4A-B9FE-6F7AFAEF870E}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{38A2B7C7-36B5-0248-9C05-1D30EB7012A6}" name="PR3-E8.2" dataDxfId="99" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{36EC25F1-0F27-8F42-AD9D-0FB4BD449E5E}" name="Patch applications _x000a_Patch applications such as PDF readers, Microsoft Office, Java, Flash Player and web browsers" dataDxfId="98" dataCellStyle="Normal 2"/>
@@ -7370,7 +7363,6 @@
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4C910E91-0772-5946-8CF6-491D3F781DD4}" name="PolicyR3e83" displayName="PolicyR3e83" ref="A18:K21" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87" tableBorderDxfId="86" headerRowCellStyle="Normal 2">
-  <autoFilter ref="A18:K21" xr:uid="{4C910E91-0772-5946-8CF6-491D3F781DD4}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{B01B4419-95A1-4A4D-A007-B9D68D4BAEEE}" name="PR3- E8.3" dataDxfId="85" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{4084D5B9-3637-E84B-B64B-B744ECD22695}" name="Patch operating systems_x000a_Patch operating system vulnerabilities" dataDxfId="84" dataCellStyle="Normal 2"/>
@@ -7390,7 +7382,6 @@
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{77C3F932-AF6B-2644-9FE3-9CB36F4B1FC3}" name="PolicyR3e84" displayName="PolicyR3e84" ref="A23:K24" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72" headerRowCellStyle="Normal 2">
-  <autoFilter ref="A23:K24" xr:uid="{77C3F932-AF6B-2644-9FE3-9CB36F4B1FC3}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{66306BC1-EBE7-DC49-AD9D-014EF58F50F2}" name="PR3-E8.4" dataDxfId="71" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{D000608A-BE3C-4C43-BACD-CBF6E4DC7FBC}" name="Minimise users with administrative privileges _x000a_The misuse of administrative privileges is a primary method for attackers to spread inside a target enterprise" dataDxfId="70" dataCellStyle="Normal 2"/>
@@ -7717,43 +7708,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="106"/>
@@ -7767,124 +7758,124 @@
       <c r="I4" s="107"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="176" t="s">
         <v>305</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="165"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="178"/>
     </row>
     <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="156" t="s">
+      <c r="A6" s="170" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="157"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="158"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="172"/>
     </row>
     <row r="7" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="170" t="s">
+      <c r="A7" s="160" t="s">
         <v>306</v>
       </c>
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="176"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="167"/>
     </row>
     <row r="8" spans="1:9" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="167" t="s">
+      <c r="A8" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="169"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="159"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="170" t="s">
+      <c r="A9" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="172"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="162"/>
     </row>
     <row r="10" spans="1:9" s="47" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="173" t="s">
+      <c r="A10" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="174"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="175"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="165"/>
     </row>
     <row r="11" spans="1:9" s="47" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="177" t="s">
+      <c r="A11" s="168" t="s">
         <v>294</v>
       </c>
-      <c r="B11" s="178"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="178"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
+      <c r="B11" s="169"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="108" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="109"/>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="166"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="166"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="166"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{357412D1-D809-42A8-A171-62DB313EA5FE}"/>
@@ -8346,134 +8337,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="182" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="183" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="183" t="s">
         <v>269</v>
       </c>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="183" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="193"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="193" t="s">
+      <c r="A5" s="183" t="s">
         <v>271</v>
       </c>
-      <c r="B5" s="193"/>
-      <c r="C5" s="193"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="193"/>
+      <c r="B5" s="183"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="197"/>
+      <c r="B6" s="185"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="186"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="200"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="189"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="187" t="s">
+      <c r="A7" s="182" t="s">
         <v>272</v>
       </c>
-      <c r="B7" s="187"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="193" t="s">
+      <c r="A8" s="183" t="s">
         <v>273</v>
       </c>
-      <c r="B8" s="193"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="193"/>
+      <c r="B8" s="183"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="183"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="187" t="s">
+      <c r="A9" s="182" t="s">
         <v>274</v>
       </c>
-      <c r="B9" s="187"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="185" t="s">
+      <c r="A10" s="190" t="s">
         <v>275</v>
       </c>
-      <c r="B10" s="186"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="186"/>
+      <c r="B10" s="191"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="191"/>
+      <c r="E10" s="191"/>
+      <c r="F10" s="191"/>
+      <c r="G10" s="191"/>
+      <c r="H10" s="191"/>
+      <c r="I10" s="191"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -8487,43 +8478,43 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="187" t="s">
+      <c r="A12" s="182" t="s">
         <v>276</v>
       </c>
-      <c r="B12" s="187"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="187"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="187"/>
+      <c r="B12" s="182"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="182"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="184" t="s">
+      <c r="A13" s="194" t="s">
         <v>277</v>
       </c>
-      <c r="B13" s="184"/>
-      <c r="C13" s="184"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="184"/>
-      <c r="F13" s="184"/>
-      <c r="G13" s="184"/>
-      <c r="H13" s="184"/>
-      <c r="I13" s="184"/>
+      <c r="B13" s="194"/>
+      <c r="C13" s="194"/>
+      <c r="D13" s="194"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="194"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="185" t="s">
+      <c r="A14" s="190" t="s">
         <v>278</v>
       </c>
-      <c r="B14" s="186"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="186"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="186"/>
+      <c r="B14" s="191"/>
+      <c r="C14" s="191"/>
+      <c r="D14" s="191"/>
+      <c r="E14" s="191"/>
+      <c r="F14" s="191"/>
+      <c r="G14" s="191"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="191"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -8537,134 +8528,134 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="187" t="s">
+      <c r="A16" s="182" t="s">
         <v>279</v>
       </c>
-      <c r="B16" s="187"/>
-      <c r="C16" s="187"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="187"/>
+      <c r="B16" s="182"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="188" t="s">
+      <c r="A17" s="195" t="s">
         <v>280</v>
       </c>
-      <c r="B17" s="188"/>
-      <c r="C17" s="188"/>
-      <c r="D17" s="188"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="188"/>
+      <c r="B17" s="195"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="195"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="189" t="s">
+      <c r="A18" s="196" t="s">
         <v>281</v>
       </c>
-      <c r="B18" s="190"/>
-      <c r="C18" s="190"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="190"/>
-      <c r="F18" s="190"/>
-      <c r="G18" s="190"/>
-      <c r="H18" s="190"/>
-      <c r="I18" s="190"/>
+      <c r="B18" s="197"/>
+      <c r="C18" s="197"/>
+      <c r="D18" s="197"/>
+      <c r="E18" s="197"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="197"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="191" t="s">
+      <c r="A19" s="198" t="s">
         <v>282</v>
       </c>
-      <c r="B19" s="191"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
-      <c r="H19" s="191"/>
-      <c r="I19" s="191"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="198"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="198"/>
+      <c r="I19" s="198"/>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="192" t="s">
+      <c r="A20" s="199" t="s">
         <v>283</v>
       </c>
-      <c r="B20" s="192"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="192"/>
-      <c r="F20" s="192"/>
-      <c r="G20" s="192"/>
-      <c r="H20" s="192"/>
-      <c r="I20" s="192"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="199"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="199"/>
+      <c r="G20" s="199"/>
+      <c r="H20" s="199"/>
+      <c r="I20" s="199"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="193" t="s">
+      <c r="A21" s="183" t="s">
         <v>284</v>
       </c>
-      <c r="B21" s="193"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="193"/>
+      <c r="B21" s="183"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="183"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="183"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="187" t="s">
+      <c r="A22" s="182" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="187"/>
-      <c r="C22" s="187"/>
-      <c r="D22" s="187"/>
-      <c r="E22" s="187"/>
-      <c r="F22" s="187"/>
-      <c r="G22" s="187"/>
-      <c r="H22" s="187"/>
-      <c r="I22" s="187"/>
+      <c r="B22" s="182"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="182"/>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="194" t="s">
+      <c r="A23" s="200" t="s">
         <v>286</v>
       </c>
-      <c r="B23" s="194"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="194"/>
-      <c r="G23" s="194"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="194"/>
+      <c r="B23" s="200"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="200"/>
+      <c r="E23" s="200"/>
+      <c r="F23" s="200"/>
+      <c r="G23" s="200"/>
+      <c r="H23" s="200"/>
+      <c r="I23" s="200"/>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="187" t="s">
+      <c r="A24" s="182" t="s">
         <v>287</v>
       </c>
-      <c r="B24" s="187"/>
-      <c r="C24" s="187"/>
-      <c r="D24" s="187"/>
-      <c r="E24" s="187"/>
-      <c r="F24" s="187"/>
-      <c r="G24" s="187"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="187"/>
+      <c r="B24" s="182"/>
+      <c r="C24" s="182"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="182"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="182"/>
+      <c r="I24" s="182"/>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="182" t="s">
+      <c r="A25" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="183"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="183"/>
+      <c r="B25" s="193"/>
+      <c r="C25" s="193"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="193"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -8683,6 +8674,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
@@ -8695,18 +8698,6 @@
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1" display="https://www.qgcio.qld.gov.au/documents/information-security-policy_x000a__x000a_ " xr:uid="{3A93C843-C1FF-41B8-A248-E76E203BCE29}"/>
@@ -9565,8 +9556,8 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10836,12 +10827,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
+      <UserInfo>
+        <DisplayName>Andy Stokes</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Klaser</DisplayName>
+        <AccountId>98</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dinar Adnan</DisplayName>
+        <AccountId>35</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11088,37 +11098,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
-      <UserInfo>
-        <DisplayName>Andy Stokes</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Klaser</DisplayName>
-        <AccountId>98</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dinar Adnan</DisplayName>
-        <AccountId>35</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11143,18 +11143,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/e8-test1.xlsx
+++ b/e8-test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SawSoe\Desktop\frontend\e8document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85791E68-148E-4632-8478-D1AD713C6542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699C3EC5-8325-4A3C-A7AC-3F03A3D42906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2580" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{149B6D2C-B18F-46C6-A9A2-8B48A3F23525}"/>
   </bookViews>
@@ -2229,7 +2229,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyAlignment="1">
@@ -2647,6 +2647,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2677,9 +2707,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2689,33 +2716,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2725,12 +2725,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2749,38 +2782,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -7330,6 +7336,14 @@
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B5BAC64C-6737-4744-A0F0-64FF9F317168}" name="PolicyR3e81" displayName="PolicyR3e81" ref="A10:F12" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110" tableBorderDxfId="109" headerRowCellStyle="Normal 2">
+  <autoFilter ref="A10:F12" xr:uid="{B5BAC64C-6737-4744-A0F0-64FF9F317168}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{0AD3CA88-D8A3-F74D-A507-4590E23BBBF8}" name="PR3- E8.1" dataDxfId="108" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{56037E7E-0FE2-CD44-A74F-89152016EBDC}" name="Application whitelisting_x000a_Use application whitelisting to help prevent malicious software and other unapproved programs from running " dataDxfId="107" dataCellStyle="Normal 2"/>
@@ -7708,43 +7722,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="106"/>
@@ -7758,124 +7772,124 @@
       <c r="I4" s="107"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="163" t="s">
         <v>305</v>
       </c>
-      <c r="B5" s="177"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="178"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="165"/>
     </row>
     <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="170" t="s">
+      <c r="A6" s="156" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="172"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="158"/>
     </row>
     <row r="7" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="170" t="s">
         <v>306</v>
       </c>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="167"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="176"/>
     </row>
     <row r="8" spans="1:9" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="157" t="s">
+      <c r="A8" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="158"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="159"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="169"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="160" t="s">
+      <c r="A9" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="161"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="162"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="172"/>
     </row>
     <row r="10" spans="1:9" s="47" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="164"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="165"/>
+      <c r="B10" s="174"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="175"/>
     </row>
     <row r="11" spans="1:9" s="47" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="168" t="s">
+      <c r="A11" s="177" t="s">
         <v>294</v>
       </c>
-      <c r="B11" s="169"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="169"/>
+      <c r="B11" s="178"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="178"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="108" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="109"/>
-      <c r="C12" s="156" t="s">
+      <c r="C12" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{357412D1-D809-42A8-A171-62DB313EA5FE}"/>
@@ -8337,134 +8351,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="187" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="193" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="193" t="s">
         <v>269</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="193" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="183"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="193" t="s">
         <v>271</v>
       </c>
-      <c r="B5" s="183"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
+      <c r="B5" s="193"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="193"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="184" t="s">
+      <c r="A6" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="185"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="186"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="197"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="189"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="199"/>
+      <c r="H6" s="199"/>
+      <c r="I6" s="200"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="182" t="s">
+      <c r="A7" s="187" t="s">
         <v>272</v>
       </c>
-      <c r="B7" s="182"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="193" t="s">
         <v>273</v>
       </c>
-      <c r="B8" s="183"/>
-      <c r="C8" s="183"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
+      <c r="B8" s="193"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="193"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="182" t="s">
+      <c r="A9" s="187" t="s">
         <v>274</v>
       </c>
-      <c r="B9" s="182"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="182"/>
+      <c r="B9" s="187"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="190" t="s">
+      <c r="A10" s="185" t="s">
         <v>275</v>
       </c>
-      <c r="B10" s="191"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="191"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="191"/>
-      <c r="H10" s="191"/>
-      <c r="I10" s="191"/>
+      <c r="B10" s="186"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -8478,43 +8492,43 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="182" t="s">
+      <c r="A12" s="187" t="s">
         <v>276</v>
       </c>
-      <c r="B12" s="182"/>
-      <c r="C12" s="182"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="182"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="182"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="187"/>
+      <c r="G12" s="187"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="187"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="194" t="s">
+      <c r="A13" s="184" t="s">
         <v>277</v>
       </c>
-      <c r="B13" s="194"/>
-      <c r="C13" s="194"/>
-      <c r="D13" s="194"/>
-      <c r="E13" s="194"/>
-      <c r="F13" s="194"/>
-      <c r="G13" s="194"/>
-      <c r="H13" s="194"/>
-      <c r="I13" s="194"/>
+      <c r="B13" s="184"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="184"/>
+      <c r="I13" s="184"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="190" t="s">
+      <c r="A14" s="185" t="s">
         <v>278</v>
       </c>
-      <c r="B14" s="191"/>
-      <c r="C14" s="191"/>
-      <c r="D14" s="191"/>
-      <c r="E14" s="191"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="191"/>
+      <c r="B14" s="186"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="186"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="186"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="186"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -8528,134 +8542,134 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182" t="s">
+      <c r="A16" s="187" t="s">
         <v>279</v>
       </c>
-      <c r="B16" s="182"/>
-      <c r="C16" s="182"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
+      <c r="B16" s="187"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="187"/>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="195" t="s">
+      <c r="A17" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="B17" s="195"/>
-      <c r="C17" s="195"/>
-      <c r="D17" s="195"/>
-      <c r="E17" s="195"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="195"/>
-      <c r="I17" s="195"/>
+      <c r="B17" s="188"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="196" t="s">
+      <c r="A18" s="189" t="s">
         <v>281</v>
       </c>
-      <c r="B18" s="197"/>
-      <c r="C18" s="197"/>
-      <c r="D18" s="197"/>
-      <c r="E18" s="197"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="197"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="197"/>
+      <c r="B18" s="190"/>
+      <c r="C18" s="190"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="190"/>
+      <c r="H18" s="190"/>
+      <c r="I18" s="190"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="198" t="s">
+      <c r="A19" s="191" t="s">
         <v>282</v>
       </c>
-      <c r="B19" s="198"/>
-      <c r="C19" s="198"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="198"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="198"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="191"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="191"/>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="199" t="s">
+      <c r="A20" s="192" t="s">
         <v>283</v>
       </c>
-      <c r="B20" s="199"/>
-      <c r="C20" s="199"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="199"/>
-      <c r="G20" s="199"/>
-      <c r="H20" s="199"/>
-      <c r="I20" s="199"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="192"/>
+      <c r="G20" s="192"/>
+      <c r="H20" s="192"/>
+      <c r="I20" s="192"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="183" t="s">
+      <c r="A21" s="193" t="s">
         <v>284</v>
       </c>
-      <c r="B21" s="183"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="193"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="193"/>
+      <c r="G21" s="193"/>
+      <c r="H21" s="193"/>
+      <c r="I21" s="193"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="182" t="s">
+      <c r="A22" s="187" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="182"/>
-      <c r="C22" s="182"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="182"/>
-      <c r="F22" s="182"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="182"/>
+      <c r="B22" s="187"/>
+      <c r="C22" s="187"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="187"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="187"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="187"/>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="200" t="s">
+      <c r="A23" s="194" t="s">
         <v>286</v>
       </c>
-      <c r="B23" s="200"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="200"/>
-      <c r="E23" s="200"/>
-      <c r="F23" s="200"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="200"/>
-      <c r="I23" s="200"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="194"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="194"/>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="182" t="s">
+      <c r="A24" s="187" t="s">
         <v>287</v>
       </c>
-      <c r="B24" s="182"/>
-      <c r="C24" s="182"/>
-      <c r="D24" s="182"/>
-      <c r="E24" s="182"/>
-      <c r="F24" s="182"/>
-      <c r="G24" s="182"/>
-      <c r="H24" s="182"/>
-      <c r="I24" s="182"/>
+      <c r="B24" s="187"/>
+      <c r="C24" s="187"/>
+      <c r="D24" s="187"/>
+      <c r="E24" s="187"/>
+      <c r="F24" s="187"/>
+      <c r="G24" s="187"/>
+      <c r="H24" s="187"/>
+      <c r="I24" s="187"/>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="192" t="s">
+      <c r="A25" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="193"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="193"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
+      <c r="B25" s="183"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="183"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -8674,6 +8688,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
     <mergeCell ref="A25:I25"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A14:I14"/>
@@ -8686,18 +8712,6 @@
     <mergeCell ref="A22:I22"/>
     <mergeCell ref="A23:I23"/>
     <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1" display="https://www.qgcio.qld.gov.au/documents/information-security-policy_x000a__x000a_ " xr:uid="{3A93C843-C1FF-41B8-A248-E76E203BCE29}"/>
@@ -9556,8 +9570,8 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9649,7 +9663,7 @@
         <v>288</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E4" s="48" t="s">
         <v>342</v>
@@ -9672,7 +9686,7 @@
         <v>289</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H5" s="48" t="s">
         <v>131</v>
@@ -9689,7 +9703,7 @@
         <v>290</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H6" s="48" t="s">
         <v>134</v>
@@ -9730,22 +9744,22 @@
       <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:11" ht="107.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="201" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="202" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="202" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="202" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="202" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="202" t="s">
         <v>141</v>
       </c>
       <c r="G10" s="53"/>
@@ -10440,11 +10454,18 @@
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <mergeCells count="2">
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J26:K26"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="textLength" allowBlank="1" showErrorMessage="1" errorTitle="Error input" error="Please use 'Comments' section" sqref="G10:H10 I25:I28 I37" xr:uid="{ED1417E7-B255-EB4C-8CB8-04E9DB385FF4}">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1" xr:uid="{E9BFF323-92EC-5F42-B687-42E1F8E2D26F}"/>
     <hyperlink ref="H5" r:id="rId2" xr:uid="{9A4FF1FE-2AE2-1742-BBFA-000848F43567}"/>
@@ -10466,6 +10487,18 @@
     <tablePart r:id="rId13"/>
     <tablePart r:id="rId14"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" error="Fully / Partial / Nil" xr:uid="{09A02791-0234-47E3-AEC4-B06EEEF48195}">
+          <x14:formula1>
+            <xm:f>data!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4:D6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10855,6 +10888,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002E1479B33370014A94629D14E7E035B7" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f8dbca6bf93f2782719d40778ede3cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xmlns:ns3="2ea85696-5d49-4719-8940-b51507ccf115" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c46fde71e1d41f3ccbfaee5083d86d4b" ns2:_="" ns3:_="">
     <xsd:import namespace="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
@@ -11097,15 +11139,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
   <ds:schemaRefs>
@@ -11124,6 +11157,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A0ADE18-14C1-4E39-A33A-3D26FDF4A566}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11140,12 +11181,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/e8-test1.xlsx
+++ b/e8-test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SawSoe\Desktop\frontend\e8document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699C3EC5-8325-4A3C-A7AC-3F03A3D42906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8D356F-4E96-49B6-A176-3E094E041533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2580" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{149B6D2C-B18F-46C6-A9A2-8B48A3F23525}"/>
   </bookViews>
@@ -2647,6 +2647,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2665,9 +2713,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2677,45 +2722,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2725,6 +2731,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2734,15 +2770,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2759,34 +2786,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2806,6 +2806,1001 @@
   <dxfs count="158">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3382,1001 +4377,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -7170,96 +7170,96 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{6164995D-5379-4B4B-AB4D-A1F7140BC99E}" name="PolicyR3e85" displayName="PolicyR3e85" ref="A26:H27" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" headerRowCellStyle="Normal 2" dataCellStyle="20% - Accent2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{6164995D-5379-4B4B-AB4D-A1F7140BC99E}" name="PolicyR3e85" displayName="PolicyR3e85" ref="A26:H27" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" headerRowCellStyle="Normal 2" dataCellStyle="20% - Accent2">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{CE9FC516-AA87-AA47-BBE7-F770B6728414}" name="PR3-E8.5" dataDxfId="58" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{3669DB3C-1E3A-F141-8792-A74B75841706}" name="Disable untrusted Microsoft Office macros_x000a_Macros are increasingly being used to enable the download of malware.  Adversaries can then access sensitive information, so macros should be secured or disabled" dataDxfId="57" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{C2DABD41-D65D-6641-A127-793B0DC3048B}" name="Additional" dataDxfId="56" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{DAAAA271-77B9-AB4B-AAAC-5A162EBFE138}" name="Percentage of fleet with MS Office macros disabled. _x000a_(Compute devices where MSOffice installed are considered 'disabled')" dataDxfId="55" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{7CEE5809-E85B-2448-AEF5-AC9430FD3194}" name="Risk mitigation for macro enabled workstations (evidence may be required)" dataDxfId="54" dataCellStyle="Note 2"/>
-    <tableColumn id="6" xr3:uid="{E4051793-5F59-9248-B72A-8CE003B38081}" name="Additional Comments (optional)" dataDxfId="53" dataCellStyle="Note 2"/>
-    <tableColumn id="7" xr3:uid="{727CBA5F-574C-9845-BC3A-8F1BDF08B84A}" name="Total percentage of protected fleet   (Cybersecurity Unit to review and accept)" dataDxfId="52" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{CE3B73D5-AE0F-4B4B-813D-F000612DF1E9}" name="Comments if any" dataDxfId="51" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{CE9FC516-AA87-AA47-BBE7-F770B6728414}" name="PR3-E8.5" dataDxfId="36" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{3669DB3C-1E3A-F141-8792-A74B75841706}" name="Disable untrusted Microsoft Office macros_x000a_Macros are increasingly being used to enable the download of malware.  Adversaries can then access sensitive information, so macros should be secured or disabled" dataDxfId="35" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{C2DABD41-D65D-6641-A127-793B0DC3048B}" name="Additional" dataDxfId="34" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{DAAAA271-77B9-AB4B-AAAC-5A162EBFE138}" name="Percentage of fleet with MS Office macros disabled. _x000a_(Compute devices where MSOffice installed are considered 'disabled')" dataDxfId="33" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{7CEE5809-E85B-2448-AEF5-AC9430FD3194}" name="Risk mitigation for macro enabled workstations (evidence may be required)" dataDxfId="32" dataCellStyle="Note 2"/>
+    <tableColumn id="6" xr3:uid="{E4051793-5F59-9248-B72A-8CE003B38081}" name="Additional Comments (optional)" dataDxfId="31" dataCellStyle="Note 2"/>
+    <tableColumn id="7" xr3:uid="{727CBA5F-574C-9845-BC3A-8F1BDF08B84A}" name="Total percentage of protected fleet   (Cybersecurity Unit to review and accept)" dataDxfId="30" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{CE3B73D5-AE0F-4B4B-813D-F000612DF1E9}" name="Comments if any" dataDxfId="29" dataCellStyle="20% - Accent2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{70ECD7F6-D6AC-3240-8218-56049DE4BA7F}" name="PolicyR3e86" displayName="PolicyR3e86" ref="A29:I30" totalsRowShown="0" headerRowDxfId="50" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{70ECD7F6-D6AC-3240-8218-56049DE4BA7F}" name="PolicyR3e86" displayName="PolicyR3e86" ref="A29:I30" totalsRowShown="0" headerRowDxfId="28" headerRowCellStyle="Normal 2">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{ABD558FE-5405-D043-B5BB-041AE84D59F0}" name="PR3-E8.6" dataDxfId="49" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{303CAA2D-9921-9647-B254-DC06DB896724}" name="User application hardening_x000a_Flash, Java and web ads are popular ways to deliver malware to infect computers" dataDxfId="48" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{0CC4356E-E085-504F-9702-B225CD285F2D}" name="Column1" dataDxfId="47" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{A6BC758D-D74F-8243-815D-12191699CD54}" name="Percentage of browser fleet with Flash blocked" dataDxfId="46" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{E080D7DD-4FFD-3647-AFCE-FBF7B1BF6D33}" name="Percentage of browser fleet with Java blocked" dataDxfId="45" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{685053C0-1F5D-3D49-9202-9344AA736821}" name="Percentage of browser fleet with Web Ads blocked" dataDxfId="44" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="7" xr3:uid="{1EE867B5-F7D2-2840-9E1F-8F18CB8D109D}" name="Are controls applied automatically (Yes/No)" dataDxfId="43" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{AD33364C-7E78-1542-8302-2C119DA386DF}" name="Where applications have not been blocked what mitigating controls exist?_x000a_Please refer to the guideline linked above" dataDxfId="42" dataCellStyle="Note 2"/>
-    <tableColumn id="10" xr3:uid="{B6DB3C65-DB36-FF4D-BF63-5DE67CD5B4DD}" name="Comments" dataDxfId="41" dataCellStyle="Note 2"/>
+    <tableColumn id="1" xr3:uid="{ABD558FE-5405-D043-B5BB-041AE84D59F0}" name="PR3-E8.6" dataDxfId="27" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{303CAA2D-9921-9647-B254-DC06DB896724}" name="User application hardening_x000a_Flash, Java and web ads are popular ways to deliver malware to infect computers" dataDxfId="26" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{0CC4356E-E085-504F-9702-B225CD285F2D}" name="Column1" dataDxfId="25" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{A6BC758D-D74F-8243-815D-12191699CD54}" name="Percentage of browser fleet with Flash blocked" dataDxfId="24" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{E080D7DD-4FFD-3647-AFCE-FBF7B1BF6D33}" name="Percentage of browser fleet with Java blocked" dataDxfId="23" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{685053C0-1F5D-3D49-9202-9344AA736821}" name="Percentage of browser fleet with Web Ads blocked" dataDxfId="22" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="7" xr3:uid="{1EE867B5-F7D2-2840-9E1F-8F18CB8D109D}" name="Are controls applied automatically (Yes/No)" dataDxfId="21" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{AD33364C-7E78-1542-8302-2C119DA386DF}" name="Where applications have not been blocked what mitigating controls exist?_x000a_Please refer to the guideline linked above" dataDxfId="20" dataCellStyle="Note 2"/>
+    <tableColumn id="10" xr3:uid="{B6DB3C65-DB36-FF4D-BF63-5DE67CD5B4DD}" name="Comments" dataDxfId="19" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1CBC12C9-0E29-CF4D-A38C-72F34E4C71C3}" name="PolicyR3e87" displayName="PolicyR3e87" ref="A32:H36" totalsRowShown="0" headerRowDxfId="40" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1CBC12C9-0E29-CF4D-A38C-72F34E4C71C3}" name="PolicyR3e87" displayName="PolicyR3e87" ref="A32:H36" totalsRowShown="0" headerRowDxfId="18" headerRowCellStyle="Normal 2">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B08649A6-9535-7B4B-9424-F2639303533F}" name="PR3-E8.7" dataDxfId="39" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{D48AFAF8-16EA-C845-AF2F-10692860E891}" name="Multi-factor authentication_x000a_Having multiple levels of authentication makes it harder for adversaries to access your information" dataDxfId="38" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{FDC5B4FA-B16F-8149-8A50-B6CB863487B7}" name="Additional Guidance" dataDxfId="37" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{85DEFC89-F7A4-684F-B7E3-20CC758955F0}" name="Percentage of systems with MFA implemented " dataDxfId="36" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{79953AC3-51E3-C94F-8676-8C9A8AB50A37}" name="Risk management for systems/programs without MFA (evidence may be required)_x000a_Please refer to the guideline linked above" dataDxfId="35" dataCellStyle="Note 2"/>
-    <tableColumn id="6" xr3:uid="{A5563CCD-B19B-0240-90F5-A6712C4A1494}" name="0.00%" dataDxfId="34" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="7" xr3:uid="{ACD54980-3C93-7D49-A6BD-BBFAB2AAFB0E}" name="Total percentage of treated fleet" dataDxfId="33" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{5E3AC24B-E9E9-DC49-A6CA-54229C73431B}" name="Comments (if necessary)" dataDxfId="32" dataCellStyle="Note 2"/>
+    <tableColumn id="1" xr3:uid="{B08649A6-9535-7B4B-9424-F2639303533F}" name="PR3-E8.7" dataDxfId="17" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{D48AFAF8-16EA-C845-AF2F-10692860E891}" name="Multi-factor authentication_x000a_Having multiple levels of authentication makes it harder for adversaries to access your information" dataDxfId="16" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{FDC5B4FA-B16F-8149-8A50-B6CB863487B7}" name="Additional Guidance" dataDxfId="15" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{85DEFC89-F7A4-684F-B7E3-20CC758955F0}" name="Percentage of systems with MFA implemented " dataDxfId="14" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{79953AC3-51E3-C94F-8676-8C9A8AB50A37}" name="Risk management for systems/programs without MFA (evidence may be required)_x000a_Please refer to the guideline linked above" dataDxfId="13" dataCellStyle="Note 2"/>
+    <tableColumn id="6" xr3:uid="{A5563CCD-B19B-0240-90F5-A6712C4A1494}" name="0.00%" dataDxfId="12" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="7" xr3:uid="{ACD54980-3C93-7D49-A6BD-BBFAB2AAFB0E}" name="Total percentage of treated fleet" dataDxfId="11" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{5E3AC24B-E9E9-DC49-A6CA-54229C73431B}" name="Comments (if necessary)" dataDxfId="10" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{DB2CE024-B531-E342-9F15-E0DD01332C25}" name="PolicyR3e88" displayName="PolicyR3e88" ref="A38:I40" totalsRowShown="0" headerRowDxfId="31" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{DB2CE024-B531-E342-9F15-E0DD01332C25}" name="PolicyR3e88" displayName="PolicyR3e88" ref="A38:I40" totalsRowShown="0" headerRowDxfId="9" headerRowCellStyle="Normal 2">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DA115D66-DA77-C34E-8E5E-B8F3C0C102A3}" name="PR3-E8.8" dataDxfId="30" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{9455DCEF-0621-DE49-A430-2A4CF43CD784}" name="Routine backup of important information_x000a_An organisation can access up to date important information in the event of a security incident" dataDxfId="29" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{51B2ADE2-B198-5B4A-968A-A4EDBA1A9108}" name="Additional Guidance" dataDxfId="28" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{D512B5CB-2D4B-824E-8183-8E8EB4D9B912}" name="Percentage of systems with regular backups" dataDxfId="27" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{49FB7ABB-12D6-CA4B-8FE2-17A97BE874DE}" name="Average of frequency for regular backups" dataDxfId="26" dataCellStyle="Note 2"/>
-    <tableColumn id="6" xr3:uid="{6E8FABA8-1A3F-014E-9E5E-0A0D3D2053FA}" name="Risk treatment for systems/programs without regular backups (evidence may be required)_x000a_Please refer to the guideline linked above" dataDxfId="25" dataCellStyle="Note 2"/>
-    <tableColumn id="7" xr3:uid="{6FDF44B6-9E44-0D45-8744-514DDA774A8A}" name="Additional Comments (If necessary)" dataDxfId="24" dataCellStyle="Note 2"/>
-    <tableColumn id="8" xr3:uid="{0CAFDF03-65F7-624A-930C-DA94F38CE317}" name="Percentage of fleet protected by risk treatment" dataDxfId="23" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="9" xr3:uid="{BDF24C57-E5F2-C34C-ABA8-BDA3246C3A51}" name="Total percentage of treated fleet" dataDxfId="22" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{DA115D66-DA77-C34E-8E5E-B8F3C0C102A3}" name="PR3-E8.8" dataDxfId="8" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{9455DCEF-0621-DE49-A430-2A4CF43CD784}" name="Routine backup of important information_x000a_An organisation can access up to date important information in the event of a security incident" dataDxfId="7" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{51B2ADE2-B198-5B4A-968A-A4EDBA1A9108}" name="Additional Guidance" dataDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{D512B5CB-2D4B-824E-8183-8E8EB4D9B912}" name="Percentage of systems with regular backups" dataDxfId="5" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{49FB7ABB-12D6-CA4B-8FE2-17A97BE874DE}" name="Average of frequency for regular backups" dataDxfId="4" dataCellStyle="Note 2"/>
+    <tableColumn id="6" xr3:uid="{6E8FABA8-1A3F-014E-9E5E-0A0D3D2053FA}" name="Risk treatment for systems/programs without regular backups (evidence may be required)_x000a_Please refer to the guideline linked above" dataDxfId="3" dataCellStyle="Note 2"/>
+    <tableColumn id="7" xr3:uid="{6FDF44B6-9E44-0D45-8744-514DDA774A8A}" name="Additional Comments (If necessary)" dataDxfId="2" dataCellStyle="Note 2"/>
+    <tableColumn id="8" xr3:uid="{0CAFDF03-65F7-624A-930C-DA94F38CE317}" name="Percentage of fleet protected by risk treatment" dataDxfId="1" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="9" xr3:uid="{BDF24C57-E5F2-C34C-ABA8-BDA3246C3A51}" name="Total percentage of treated fleet" dataDxfId="0" dataCellStyle="20% - Accent2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}" name="PolicyR4" displayName="PolicyR4" ref="A1:G4" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}" name="PolicyR4" displayName="PolicyR4" ref="A1:G4" totalsRowShown="0" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59" tableBorderDxfId="57" totalsRowBorderDxfId="56" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:G4" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6E1EDF40-70B6-544B-A986-5E60024AA3D5}" name="#" dataDxfId="16" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{5C238449-1F5D-1D47-AADF-BD451FFA350B}" name="Policy Requirements" dataDxfId="15" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{EC0204AF-CEF0-0342-8769-4DEEAD0DC24B}" name="Additional Guidance" dataDxfId="14" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{AB37D074-1647-3B4F-8E8E-D27070BC985D}" name="Your Evidence" dataDxfId="13" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{74A161C0-338D-404B-B6F8-F55A12B59FFB}" name="Evidence File Name or URL" dataDxfId="12" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{C0C01509-32BA-AF4C-963C-85736CADCE9D}" name="Your Notes" dataDxfId="11" dataCellStyle="Note 2"/>
-    <tableColumn id="7" xr3:uid="{DF6ECCA5-FC8C-47D7-8A81-BD23D6866FB7}" name="Additional Links" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{6E1EDF40-70B6-544B-A986-5E60024AA3D5}" name="#" dataDxfId="55" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{5C238449-1F5D-1D47-AADF-BD451FFA350B}" name="Policy Requirements" dataDxfId="54" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{EC0204AF-CEF0-0342-8769-4DEEAD0DC24B}" name="Additional Guidance" dataDxfId="53" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{AB37D074-1647-3B4F-8E8E-D27070BC985D}" name="Your Evidence" dataDxfId="52" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{74A161C0-338D-404B-B6F8-F55A12B59FFB}" name="Evidence File Name or URL" dataDxfId="51" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{C0C01509-32BA-AF4C-963C-85736CADCE9D}" name="Your Notes" dataDxfId="50" dataCellStyle="Note 2"/>
+    <tableColumn id="7" xr3:uid="{DF6ECCA5-FC8C-47D7-8A81-BD23D6866FB7}" name="Additional Links" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}" name="PolicyR5" displayName="PolicyR5" ref="A1:E2" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}" name="PolicyR5" displayName="PolicyR5" ref="A1:E2" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45" totalsRowBorderDxfId="44" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:E2" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8E19B852-1D8F-5B41-B909-40400D58B70B}" name="#" dataDxfId="4" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{21CD23DA-3756-6843-894B-9CB4D083C06A}" name="Policy Requirement" dataDxfId="3" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{CC769D77-0EFF-7E40-8F8D-7501A9CA818F}" name="Additional Guidance" dataDxfId="2" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{B536756C-928D-224C-898B-F5832F8F988E}" name="Attestation File Name or URL" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="5" xr3:uid="{7D72BA3E-D6C6-8444-862D-C91A865EF1DA}" name="Sample Attestation for information" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{8E19B852-1D8F-5B41-B909-40400D58B70B}" name="#" dataDxfId="43" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{21CD23DA-3756-6843-894B-9CB4D083C06A}" name="Policy Requirement" dataDxfId="42" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{CC769D77-0EFF-7E40-8F8D-7501A9CA818F}" name="Additional Guidance" dataDxfId="41" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{B536756C-928D-224C-898B-F5832F8F988E}" name="Attestation File Name or URL" dataDxfId="40" dataCellStyle="Comma 2"/>
+    <tableColumn id="5" xr3:uid="{7D72BA3E-D6C6-8444-862D-C91A865EF1DA}" name="Sample Attestation for information" dataDxfId="39" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7722,43 +7722,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="106"/>
@@ -7772,124 +7772,124 @@
       <c r="I4" s="107"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="178" t="s">
         <v>305</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="165"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="180"/>
     </row>
     <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="156" t="s">
+      <c r="A6" s="172" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="157"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="158"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="174"/>
     </row>
     <row r="7" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="170" t="s">
+      <c r="A7" s="162" t="s">
         <v>306</v>
       </c>
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="176"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="169"/>
     </row>
     <row r="8" spans="1:9" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="167" t="s">
+      <c r="A8" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="169"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="161"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="170" t="s">
+      <c r="A9" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="172"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="164"/>
     </row>
     <row r="10" spans="1:9" s="47" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="173" t="s">
+      <c r="A10" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="174"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="175"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="167"/>
     </row>
     <row r="11" spans="1:9" s="47" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="177" t="s">
+      <c r="A11" s="170" t="s">
         <v>294</v>
       </c>
-      <c r="B11" s="178"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="178"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="108" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="109"/>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="166"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="166"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="166"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{357412D1-D809-42A8-A171-62DB313EA5FE}"/>
@@ -7918,14 +7918,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="183" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7984,14 +7984,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="183" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -8055,14 +8055,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="183" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -8127,14 +8127,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="183" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -8240,14 +8240,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="183" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -8351,134 +8351,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="184" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="185" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="185" t="s">
         <v>269</v>
       </c>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="185" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="193"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="193" t="s">
+      <c r="A5" s="185" t="s">
         <v>271</v>
       </c>
-      <c r="B5" s="193"/>
-      <c r="C5" s="193"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="193"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="185"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="185"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="197"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="188"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
-      <c r="I6" s="200"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="191"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="187" t="s">
+      <c r="A7" s="184" t="s">
         <v>272</v>
       </c>
-      <c r="B7" s="187"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="193" t="s">
+      <c r="A8" s="185" t="s">
         <v>273</v>
       </c>
-      <c r="B8" s="193"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="193"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="187" t="s">
+      <c r="A9" s="184" t="s">
         <v>274</v>
       </c>
-      <c r="B9" s="187"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="184"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="185" t="s">
+      <c r="A10" s="192" t="s">
         <v>275</v>
       </c>
-      <c r="B10" s="186"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="186"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -8492,43 +8492,43 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="187" t="s">
+      <c r="A12" s="184" t="s">
         <v>276</v>
       </c>
-      <c r="B12" s="187"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="187"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="187"/>
+      <c r="B12" s="184"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="184"/>
+      <c r="I12" s="184"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="184" t="s">
+      <c r="A13" s="196" t="s">
         <v>277</v>
       </c>
-      <c r="B13" s="184"/>
-      <c r="C13" s="184"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="184"/>
-      <c r="F13" s="184"/>
-      <c r="G13" s="184"/>
-      <c r="H13" s="184"/>
-      <c r="I13" s="184"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="196"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="185" t="s">
+      <c r="A14" s="192" t="s">
         <v>278</v>
       </c>
-      <c r="B14" s="186"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="186"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="186"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -8542,134 +8542,134 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="187" t="s">
+      <c r="A16" s="184" t="s">
         <v>279</v>
       </c>
-      <c r="B16" s="187"/>
-      <c r="C16" s="187"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="187"/>
+      <c r="B16" s="184"/>
+      <c r="C16" s="184"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="184"/>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="188" t="s">
+      <c r="A17" s="197" t="s">
         <v>280</v>
       </c>
-      <c r="B17" s="188"/>
-      <c r="C17" s="188"/>
-      <c r="D17" s="188"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="188"/>
+      <c r="B17" s="197"/>
+      <c r="C17" s="197"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="197"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="189" t="s">
+      <c r="A18" s="198" t="s">
         <v>281</v>
       </c>
-      <c r="B18" s="190"/>
-      <c r="C18" s="190"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="190"/>
-      <c r="F18" s="190"/>
-      <c r="G18" s="190"/>
-      <c r="H18" s="190"/>
-      <c r="I18" s="190"/>
+      <c r="B18" s="199"/>
+      <c r="C18" s="199"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="191" t="s">
+      <c r="A19" s="200" t="s">
         <v>282</v>
       </c>
-      <c r="B19" s="191"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
-      <c r="H19" s="191"/>
-      <c r="I19" s="191"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="200"/>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="192" t="s">
+      <c r="A20" s="201" t="s">
         <v>283</v>
       </c>
-      <c r="B20" s="192"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="192"/>
-      <c r="F20" s="192"/>
-      <c r="G20" s="192"/>
-      <c r="H20" s="192"/>
-      <c r="I20" s="192"/>
+      <c r="B20" s="201"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="201"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="193" t="s">
+      <c r="A21" s="185" t="s">
         <v>284</v>
       </c>
-      <c r="B21" s="193"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="193"/>
+      <c r="B21" s="185"/>
+      <c r="C21" s="185"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="185"/>
+      <c r="G21" s="185"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="185"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="187" t="s">
+      <c r="A22" s="184" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="187"/>
-      <c r="C22" s="187"/>
-      <c r="D22" s="187"/>
-      <c r="E22" s="187"/>
-      <c r="F22" s="187"/>
-      <c r="G22" s="187"/>
-      <c r="H22" s="187"/>
-      <c r="I22" s="187"/>
+      <c r="B22" s="184"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="194" t="s">
+      <c r="A23" s="202" t="s">
         <v>286</v>
       </c>
-      <c r="B23" s="194"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="194"/>
-      <c r="G23" s="194"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="194"/>
+      <c r="B23" s="202"/>
+      <c r="C23" s="202"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="202"/>
+      <c r="F23" s="202"/>
+      <c r="G23" s="202"/>
+      <c r="H23" s="202"/>
+      <c r="I23" s="202"/>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="187" t="s">
+      <c r="A24" s="184" t="s">
         <v>287</v>
       </c>
-      <c r="B24" s="187"/>
-      <c r="C24" s="187"/>
-      <c r="D24" s="187"/>
-      <c r="E24" s="187"/>
-      <c r="F24" s="187"/>
-      <c r="G24" s="187"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="187"/>
+      <c r="B24" s="184"/>
+      <c r="C24" s="184"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="184"/>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="182" t="s">
+      <c r="A25" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="183"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="183"/>
+      <c r="B25" s="195"/>
+      <c r="C25" s="195"/>
+      <c r="D25" s="195"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="195"/>
+      <c r="H25" s="195"/>
+      <c r="I25" s="195"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -8688,6 +8688,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
@@ -8700,18 +8712,6 @@
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1" display="https://www.qgcio.qld.gov.au/documents/information-security-policy_x000a__x000a_ " xr:uid="{3A93C843-C1FF-41B8-A248-E76E203BCE29}"/>
@@ -9570,8 +9570,8 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9744,22 +9744,22 @@
       <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:11" ht="107.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="201" t="s">
+      <c r="A10" s="156" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="202" t="s">
+      <c r="B10" s="157" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="202" t="s">
+      <c r="C10" s="157" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="202" t="s">
+      <c r="D10" s="157" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="202" t="s">
+      <c r="E10" s="157" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="202" t="s">
+      <c r="F10" s="157" t="s">
         <v>141</v>
       </c>
       <c r="G10" s="53"/>
@@ -10138,10 +10138,10 @@
         <v>183</v>
       </c>
       <c r="I26" s="53"/>
-      <c r="J26" s="180" t="s">
+      <c r="J26" s="182" t="s">
         <v>155</v>
       </c>
-      <c r="K26" s="180"/>
+      <c r="K26" s="182"/>
     </row>
     <row r="27" spans="1:11" ht="91.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
@@ -10165,8 +10165,8 @@
       </c>
       <c r="H27" s="56"/>
       <c r="I27" s="53"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="179"/>
+      <c r="J27" s="181"/>
+      <c r="K27" s="181"/>
     </row>
     <row r="28" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="60"/>
@@ -10860,6 +10860,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
@@ -10885,15 +10894,6 @@
     <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11140,6 +11140,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -11152,14 +11160,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
